--- a/data/trans_dic/P15-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P15-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P15-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P15-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,73%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,58%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,84%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>3,53; 15,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>8,35; 21,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>1,76; 9,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>2,62; 13,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>3,04; 11,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>2,07; 11,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>1,87; 12,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>3,38; 9,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>4,0; 10,72</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>6,01; 14,08</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>2,5; 9,13</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>3,76; 9,42</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,92%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>6,41; 10,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>5,51; 9,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>4,6; 8,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>5,12; 9,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>3,42; 7,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>6,08; 10,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>5,67; 10,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>5,06; 8,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>5,41; 8,27</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>6,24; 9,3</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>5,64; 8,71</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>5,69; 8,59</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,23%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>7,0; 10,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>6,25; 9,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>4,57; 7,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>4,93; 8,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>4,54; 7,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>5,87; 8,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>3,42; 6,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>4,58; 7,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>6,26; 8,79</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>6,41; 8,86</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>4,37; 6,41</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>5,08; 7,5</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,86%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>5,0; 9,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>5,96; 9,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>3,52; 6,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>2,75; 5,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>3,62; 7,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>5,63; 9,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>2,59; 5,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>3,58; 7,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>4,7; 7,38</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>6,35; 9,08</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>3,42; 5,58</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>3,49; 5,93</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,43%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>4,52; 7,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>7,62; 11,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>4,95; 8,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>4,81; 8,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>3,28; 5,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>5,41; 8,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>4,57; 7,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>5,28; 7,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>4,23; 6,26</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>6,9; 9,34</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>5,19; 7,53</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>5,46; 7,49</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,24%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,08%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,57; 8,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,41; 9,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,05; 6,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,18; 7,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,49; 6,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,34; 8,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,67; 6,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>5,31; 6,88</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>5,66; 6,94</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>7,15; 8,54</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>5,1; 6,21</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>5,49; 6,72</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P15-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P15-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>6,72%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,53; 15,17</t>
+          <t>6,5; 10,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,35; 21,99</t>
+          <t>6,36; 10,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,76; 9,69</t>
+          <t>4,59; 8,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,62; 13,6</t>
+          <t>5,34; 9,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,04; 11,8</t>
+          <t>3,78; 7,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,07; 11,01</t>
+          <t>5,75; 10,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,87; 12,97</t>
+          <t>5,16; 9,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,38; 9,92</t>
+          <t>5,04; 7,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,0; 10,72</t>
+          <t>5,4; 8,12</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,01; 14,08</t>
+          <t>6,65; 9,46</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,5; 9,13</t>
+          <t>5,48; 8,23</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,76; 9,42</t>
+          <t>5,63; 8,04</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>5,78%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,41; 10,95</t>
+          <t>7,0; 10,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,51; 9,59</t>
+          <t>6,25; 9,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,6; 8,64</t>
+          <t>4,57; 7,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,12; 9,88</t>
+          <t>2,9; 7,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,42; 7,03</t>
+          <t>4,54; 7,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,08; 10,53</t>
+          <t>5,87; 8,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,67; 10,1</t>
+          <t>3,42; 6,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,06; 8,1</t>
+          <t>4,59; 7,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,41; 8,27</t>
+          <t>6,26; 8,79</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,24; 9,3</t>
+          <t>6,41; 8,86</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,64; 8,71</t>
+          <t>4,37; 6,41</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,69; 8,59</t>
+          <t>3,73; 7,19</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>4,48%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,0; 10,67</t>
+          <t>5,0; 9,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,25; 9,99</t>
+          <t>5,96; 9,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,57; 7,7</t>
+          <t>3,52; 6,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,93; 8,77</t>
+          <t>2,77; 5,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,54; 7,81</t>
+          <t>3,62; 7,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,87; 8,97</t>
+          <t>5,63; 9,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,42; 6,13</t>
+          <t>2,59; 5,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,58; 7,63</t>
+          <t>2,35; 6,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,26; 8,79</t>
+          <t>4,7; 7,38</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,41; 8,86</t>
+          <t>6,35; 9,08</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,37; 6,41</t>
+          <t>3,42; 5,58</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,08; 7,5</t>
+          <t>2,82; 5,64</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>6,33%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,0; 9,23</t>
+          <t>4,52; 7,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,96; 9,88</t>
+          <t>7,62; 11,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,52; 6,53</t>
+          <t>4,95; 8,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,75; 5,89</t>
+          <t>4,78; 8,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,62; 7,05</t>
+          <t>3,28; 5,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,63; 9,44</t>
+          <t>5,41; 8,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,59; 5,61</t>
+          <t>4,57; 7,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,58; 7,32</t>
+          <t>4,8; 7,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,7; 7,38</t>
+          <t>4,23; 6,26</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,35; 9,08</t>
+          <t>6,9; 9,34</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,42; 5,58</t>
+          <t>5,19; 7,53</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,49; 5,93</t>
+          <t>5,26; 7,44</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>7,24%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>5,81%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,52; 7,55</t>
+          <t>6,57; 8,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,62; 11,44</t>
+          <t>7,41; 9,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,95; 8,18</t>
+          <t>5,05; 6,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,81; 8,2</t>
+          <t>4,52; 6,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,28; 5,77</t>
+          <t>4,49; 6,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,41; 8,45</t>
+          <t>6,34; 8,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,57; 7,76</t>
+          <t>4,67; 6,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,28; 7,9</t>
+          <t>4,81; 6,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,23; 6,26</t>
+          <t>5,66; 6,94</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,9; 9,34</t>
+          <t>7,15; 8,54</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,19; 7,53</t>
+          <t>5,1; 6,21</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,46; 7,49</t>
+          <t>4,95; 6,48</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>7,42%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>8,4%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>5,88%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>6,05%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>5,19%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>7,24%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>5,4%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>6,1%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>6,29%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>7,81%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>5,64%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>6,08%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>6,57; 8,42</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>7,41; 9,5</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>5,05; 6,75</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>5,18; 7,07</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>4,49; 6,02</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>6,34; 8,16</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>4,67; 6,28</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>5,31; 6,88</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>5,66; 6,94</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>7,15; 8,54</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>5,1; 6,21</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>5,49; 6,72</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P15-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P15-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,5; 10,46</t>
+          <t>6,27; 10,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,36; 10,43</t>
+          <t>6,63; 10,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,59; 8,05</t>
+          <t>4,55; 8,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,34; 9,48</t>
+          <t>5,18; 9,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,78; 7,09</t>
+          <t>3,79; 7,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,75; 10,08</t>
+          <t>5,78; 10,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,16; 9,55</t>
+          <t>5,36; 9,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,04; 7,86</t>
+          <t>5,32; 8,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,4; 8,12</t>
+          <t>5,42; 8,2</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,65; 9,46</t>
+          <t>6,71; 9,55</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,48; 8,23</t>
+          <t>5,41; 8,1</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,63; 8,04</t>
+          <t>5,66; 8,22</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,0; 10,67</t>
+          <t>7,07; 10,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,25; 9,99</t>
+          <t>6,33; 9,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,57; 7,7</t>
+          <t>4,5; 7,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,9; 7,97</t>
+          <t>2,84; 7,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,54; 7,81</t>
+          <t>4,66; 7,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,87; 8,97</t>
+          <t>5,9; 9,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,42; 6,13</t>
+          <t>3,46; 6,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,59; 7,62</t>
+          <t>4,7; 7,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,26; 8,79</t>
+          <t>6,2; 8,75</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,41; 8,86</t>
+          <t>6,38; 8,84</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,37; 6,41</t>
+          <t>4,38; 6,3</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,73; 7,19</t>
+          <t>4,06; 7,26</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,0; 9,23</t>
+          <t>5,03; 9,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,96; 9,88</t>
+          <t>6,03; 9,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,52; 6,53</t>
+          <t>3,39; 6,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,77; 5,99</t>
+          <t>2,86; 5,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,62; 7,05</t>
+          <t>3,56; 6,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,63; 9,44</t>
+          <t>5,73; 9,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,59; 5,61</t>
+          <t>2,75; 5,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,35; 6,65</t>
+          <t>2,55; 6,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,7; 7,38</t>
+          <t>4,63; 7,3</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,35; 9,08</t>
+          <t>6,28; 9,04</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,42; 5,58</t>
+          <t>3,37; 5,58</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,82; 5,64</t>
+          <t>2,82; 5,58</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,52; 7,55</t>
+          <t>4,54; 7,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,62; 11,44</t>
+          <t>7,68; 11,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,95; 8,18</t>
+          <t>4,89; 8,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,78; 8,31</t>
+          <t>4,89; 8,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,28; 5,77</t>
+          <t>3,25; 6,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,41; 8,45</t>
+          <t>5,34; 8,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,57; 7,76</t>
+          <t>4,56; 7,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,8; 7,66</t>
+          <t>4,95; 7,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,23; 6,26</t>
+          <t>4,17; 6,2</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,9; 9,34</t>
+          <t>6,83; 9,4</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,19; 7,53</t>
+          <t>5,17; 7,49</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,26; 7,44</t>
+          <t>5,2; 7,51</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,57; 8,42</t>
+          <t>6,51; 8,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,41; 9,5</t>
+          <t>7,42; 9,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,05; 6,75</t>
+          <t>5,08; 6,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,52; 6,85</t>
+          <t>4,51; 6,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,49; 6,02</t>
+          <t>4,47; 6,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,34; 8,16</t>
+          <t>6,37; 8,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,67; 6,28</t>
+          <t>4,71; 6,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,81; 6,62</t>
+          <t>4,85; 6,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,66; 6,94</t>
+          <t>5,69; 6,93</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,15; 8,54</t>
+          <t>7,13; 8,48</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,1; 6,21</t>
+          <t>5,11; 6,22</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,95; 6,48</t>
+          <t>4,98; 6,49</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>57754</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>59022</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>41607</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>44881</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>35407</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>53520</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>48675</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>43242</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>93162</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>112542</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>90283</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>88123</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>43512; 73705</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>46634; 74449</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>30703; 55103</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>32903; 60162</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>26118; 48272</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>40256; 70644</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>36065; 63113</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>35948; 54143</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>74919; 113350</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>93995; 133799</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>72952; 109117</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>74161; 107718</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>84244</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>81289</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>60475</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>67059</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>58705</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>74623</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>48599</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>57234</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>142949</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>155913</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>109074</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>124293</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>68046; 105488</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>64407; 100968</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>45968; 77954</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>33844; 95301</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>45141; 76092</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>60862; 95608</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>36123; 64156</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>45025; 74367</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>119598; 168816</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>130739; 181297</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>90513; 130116</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>87340; 156259</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>45725</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>58408</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>36666</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>29234</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>34931</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>57045</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>31561</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>44108</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>80656</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>115453</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>68227</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>73342</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>34118; 61619</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>45698; 74458</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>25732; 49869</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>20149; 41295</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>24379; 47014</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>44553; 75465</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>21572; 44207</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>23828; 63580</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>63139; 99498</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>96397; 138816</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>52014; 86231</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>46207; 91390</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>55333</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>89193</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>60886</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>58885</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>46347</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>72284</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>62618</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>69018</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>101680</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>161478</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>123504</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>127903</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>42803; 70845</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>72822; 108713</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>45845; 76484</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>45282; 76256</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>33788; 62345</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>56211; 91721</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>47617; 80684</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>54162; 85214</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>82676; 122853</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>136562; 187871</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>102384; 148439</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>105226; 151761</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>517</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>571</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>243056</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>287913</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>199634</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>200059</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>175391</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>257472</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>191453</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>213603</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>418447</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>545385</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>391087</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>413662</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>213412; 272920</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>254257; 323070</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>172348; 227456</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>156189; 237795</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>151081; 206321</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>226504; 290278</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>166967; 219653</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>177727; 248580</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>379017; 461354</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>498305; 592513</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>354579; 431587</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>354667; 462516</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>